--- a/sd-change-def-ror-healthcareservice-sensitive-unit/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/sd-change-def-ror-healthcareservice-sensitive-unit/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T15:33:31+00:00</t>
+    <t>2024-06-13T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -672,10 +672,10 @@
 </t>
   </si>
   <si>
-    <t>uniteSensible (OffreOperationnelle) : Permet de signaler que toutes les informations de description d'une offre sont confidentielles</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR pour signaler que toutes les informations de description d'une offre sont confidentielles car elles présentent un risque d'utilisation à des fins malveillantes.</t>
+    <t>uniteSensible (OffreOperationnelle) : Permet de signaler que toutes les informations de description d'une offre sont confidentielles ou que le porteur d'offre ne souhaite pas diffuser</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour signaler que toutes les informations de description d'une offre sont confidentielles car elles présentent un risque d'utilisation à des fins malveillantes, ou que le porteur d'offre ne souhaite pas diffuser.</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-no-consent-habilitation</t>
